--- a/input_csv/20_Netzwerkkarten/artikel.xlsx
+++ b/input_csv/20_Netzwerkkarten/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\20_Netzwerkkarten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAEF106-B2C3-4D93-8D93-94E953932798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A87D66-55F2-4AFB-A550-CDA174F07BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F457CBFC-C01D-46E9-B99B-CC70E4EB1BED}"/>
   </bookViews>
@@ -31,10 +31,10 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>TP-LINK TG-3269 - PCI-Netzwerkkarte</t>
+    <t>150 Mbit/s W-Lan PCI Express</t>
   </si>
   <si>
-    <t>TP-LINK TG-3468 - PCI-Express Netzwerkkarte</t>
+    <t>300 Mbit/s W-Lan PCI Express</t>
   </si>
 </sst>
 </file>
@@ -899,13 +899,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -924,22 +925,18 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>101869</v>
+        <v>101744</v>
       </c>
-      <c r="C2" s="1">
-        <v>6935364001001</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>101879</v>
+        <v>101745</v>
       </c>
-      <c r="C3" s="1">
-        <v>6935364001049</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
